--- a/cases/sprints.xlsx
+++ b/cases/sprints.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helena.strada\Documents\senai\senai-dev-1s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.henrique\Documents\Senai\1_Semestre_2019\1s2019-t2\cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -1473,208 +1473,208 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>35</v>
       </c>
@@ -1689,45 +1689,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T41" sqref="T41:T42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="92" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="26" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="24" customWidth="1"/>
-    <col min="6" max="16" width="6.5703125" style="23" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" style="25" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" style="26" customWidth="1"/>
-    <col min="19" max="29" width="6.5703125" style="23" customWidth="1"/>
-    <col min="30" max="30" width="7.42578125" style="23" customWidth="1"/>
-    <col min="31" max="33" width="7.42578125" style="24" customWidth="1"/>
-    <col min="34" max="40" width="7.42578125" style="23" customWidth="1"/>
-    <col min="41" max="41" width="7.42578125" style="26" customWidth="1"/>
-    <col min="42" max="45" width="7.42578125" style="23" customWidth="1"/>
-    <col min="46" max="46" width="7.42578125" style="26" customWidth="1"/>
-    <col min="47" max="50" width="7.42578125" style="23" customWidth="1"/>
-    <col min="51" max="53" width="6.85546875" style="23" customWidth="1"/>
-    <col min="54" max="68" width="6.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="6.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="6.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="7.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="74" max="88" width="7.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="7.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="91" max="93" width="7.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="7.140625" style="23" customWidth="1"/>
-    <col min="95" max="95" width="7.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="96" max="105" width="6.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="6.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="107" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="6.5546875" style="26" customWidth="1"/>
+    <col min="3" max="4" width="6.5546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" style="24" customWidth="1"/>
+    <col min="6" max="16" width="6.5546875" style="23" customWidth="1"/>
+    <col min="17" max="17" width="6.5546875" style="25" customWidth="1"/>
+    <col min="18" max="18" width="6.5546875" style="26" customWidth="1"/>
+    <col min="19" max="29" width="6.5546875" style="23" customWidth="1"/>
+    <col min="30" max="30" width="7.44140625" style="23" customWidth="1"/>
+    <col min="31" max="33" width="7.44140625" style="24" customWidth="1"/>
+    <col min="34" max="40" width="7.44140625" style="23" customWidth="1"/>
+    <col min="41" max="41" width="7.44140625" style="26" customWidth="1"/>
+    <col min="42" max="45" width="7.44140625" style="23" customWidth="1"/>
+    <col min="46" max="46" width="7.44140625" style="26" customWidth="1"/>
+    <col min="47" max="50" width="7.44140625" style="23" customWidth="1"/>
+    <col min="51" max="53" width="6.88671875" style="23" customWidth="1"/>
+    <col min="54" max="68" width="6.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="70" max="72" width="6.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="74" max="88" width="7.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="7.109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="91" max="93" width="7.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="7.109375" style="23" customWidth="1"/>
+    <col min="95" max="95" width="7.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="96" max="105" width="6.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="6.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="107" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:119" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="70" t="s">
         <v>42</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="DA1" s="31"/>
       <c r="DB1" s="49"/>
     </row>
-    <row r="2" spans="1:119" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:119" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>40</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="DN2" s="30"/>
       <c r="DO2" s="30"/>
     </row>
-    <row r="3" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="CL3" s="26"/>
       <c r="DB3" s="25"/>
     </row>
-    <row r="4" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="CL4" s="26"/>
       <c r="DB4" s="25"/>
     </row>
-    <row r="5" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="CL5" s="26"/>
       <c r="DB5" s="25"/>
     </row>
-    <row r="6" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>11</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="CL6" s="26"/>
       <c r="DB6" s="25"/>
     </row>
-    <row r="7" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="CL7" s="26"/>
       <c r="DB7" s="25"/>
     </row>
-    <row r="8" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="CL8" s="26"/>
       <c r="DB8" s="25"/>
     </row>
-    <row r="9" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
@@ -2318,7 +2318,7 @@
       <c r="CL9" s="26"/>
       <c r="DB9" s="25"/>
     </row>
-    <row r="10" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="CL10" s="26"/>
       <c r="DB10" s="25"/>
     </row>
-    <row r="11" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="CL11" s="26"/>
       <c r="DB11" s="25"/>
     </row>
-    <row r="12" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="CL12" s="26"/>
       <c r="DB12" s="25"/>
     </row>
-    <row r="13" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>15</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="CL13" s="26"/>
       <c r="DB13" s="25"/>
     </row>
-    <row r="14" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>16</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="CL14" s="26"/>
       <c r="DB14" s="25"/>
     </row>
-    <row r="15" spans="1:119" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:119" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
         <v>41</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="CL15" s="32"/>
       <c r="DB15" s="39"/>
     </row>
-    <row r="16" spans="1:119" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:119" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>18</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="CL16" s="29"/>
       <c r="DB16" s="49"/>
     </row>
-    <row r="17" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>19</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="CL17" s="26"/>
       <c r="DB17" s="25"/>
     </row>
-    <row r="18" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>21</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="CL18" s="26"/>
       <c r="DB18" s="25"/>
     </row>
-    <row r="19" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
         <v>62</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="CL19" s="26"/>
       <c r="DB19" s="25"/>
     </row>
-    <row r="20" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>27</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="CL20" s="26"/>
       <c r="DB20" s="25"/>
     </row>
-    <row r="21" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
         <v>51</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="CL21" s="26"/>
       <c r="DB21" s="25"/>
     </row>
-    <row r="22" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>22</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="CL22" s="26"/>
       <c r="DB22" s="25"/>
     </row>
-    <row r="23" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>23</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="CL23" s="26"/>
       <c r="DB23" s="25"/>
     </row>
-    <row r="24" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
         <v>52</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="CL24" s="26"/>
       <c r="DB24" s="25"/>
     </row>
-    <row r="25" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
         <v>53</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="CL25" s="26"/>
       <c r="DB25" s="25"/>
     </row>
-    <row r="26" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
         <v>54</v>
       </c>
@@ -2666,7 +2666,7 @@
       <c r="CL26" s="26"/>
       <c r="DB26" s="25"/>
     </row>
-    <row r="27" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
         <v>55</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="CL27" s="26"/>
       <c r="DB27" s="25"/>
     </row>
-    <row r="28" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
         <v>56</v>
       </c>
@@ -19076,7 +19076,7 @@
       <c r="XFC28" s="43"/>
       <c r="XFD28" s="43"/>
     </row>
-    <row r="29" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
@@ -19095,7 +19095,7 @@
       <c r="CL29" s="26"/>
       <c r="DB29" s="25"/>
     </row>
-    <row r="30" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
@@ -19114,7 +19114,7 @@
       <c r="CL30" s="26"/>
       <c r="DB30" s="25"/>
     </row>
-    <row r="31" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>26</v>
       </c>
@@ -19132,7 +19132,7 @@
       <c r="CL31" s="26"/>
       <c r="DB31" s="25"/>
     </row>
-    <row r="32" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="50" t="s">
         <v>59</v>
       </c>
@@ -19151,7 +19151,7 @@
       <c r="CL32" s="26"/>
       <c r="DB32" s="25"/>
     </row>
-    <row r="33" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="50" t="s">
         <v>43</v>
       </c>
@@ -19170,7 +19170,7 @@
       <c r="CL33" s="26"/>
       <c r="DB33" s="25"/>
     </row>
-    <row r="34" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="50" t="s">
         <v>44</v>
       </c>
@@ -19191,7 +19191,7 @@
       <c r="CL34" s="26"/>
       <c r="DB34" s="25"/>
     </row>
-    <row r="35" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="50" t="s">
         <v>46</v>
       </c>
@@ -19210,7 +19210,7 @@
       <c r="CL35" s="26"/>
       <c r="DB35" s="25"/>
     </row>
-    <row r="36" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
@@ -19231,7 +19231,7 @@
       <c r="CL36" s="26"/>
       <c r="DB36" s="25"/>
     </row>
-    <row r="37" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
         <v>47</v>
       </c>
@@ -19250,7 +19250,7 @@
       <c r="CL37" s="26"/>
       <c r="DB37" s="25"/>
     </row>
-    <row r="38" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
         <v>48</v>
       </c>
@@ -19269,7 +19269,7 @@
       <c r="CL38" s="26"/>
       <c r="DB38" s="25"/>
     </row>
-    <row r="39" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50" t="s">
         <v>49</v>
       </c>
@@ -19288,7 +19288,7 @@
       <c r="CL39" s="26"/>
       <c r="DB39" s="25"/>
     </row>
-    <row r="40" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
         <v>50</v>
       </c>
@@ -19307,7 +19307,7 @@
       <c r="CL40" s="26"/>
       <c r="DB40" s="25"/>
     </row>
-    <row r="41" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
         <v>60</v>
       </c>
@@ -19327,7 +19327,7 @@
       <c r="CL41" s="26"/>
       <c r="DB41" s="25"/>
     </row>
-    <row r="42" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
         <v>61</v>
       </c>
@@ -19347,7 +19347,7 @@
       <c r="CL42" s="26"/>
       <c r="DB42" s="25"/>
     </row>
-    <row r="43" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
         <v>63</v>
       </c>
@@ -19369,7 +19369,7 @@
       <c r="CL43" s="26"/>
       <c r="DB43" s="25"/>
     </row>
-    <row r="44" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>20</v>
       </c>
@@ -19395,7 +19395,7 @@
       <c r="CL44" s="26"/>
       <c r="DB44" s="25"/>
     </row>
-    <row r="45" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>24</v>
       </c>
@@ -19414,7 +19414,7 @@
       <c r="CL45" s="26"/>
       <c r="DB45" s="25"/>
     </row>
-    <row r="46" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>28</v>
       </c>
@@ -19436,7 +19436,7 @@
       <c r="CL46" s="26"/>
       <c r="DB46" s="25"/>
     </row>
-    <row r="47" spans="1:106" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:106" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="52" t="s">
         <v>64</v>
       </c>
@@ -19473,7 +19473,7 @@
       <c r="CL47" s="26"/>
       <c r="DB47" s="25"/>
     </row>
-    <row r="48" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>4</v>
       </c>
@@ -19495,7 +19495,7 @@
       <c r="CL48" s="29"/>
       <c r="DB48" s="49"/>
     </row>
-    <row r="49" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>67</v>
       </c>
@@ -19514,7 +19514,7 @@
       <c r="CL49" s="26"/>
       <c r="DB49" s="25"/>
     </row>
-    <row r="50" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>66</v>
       </c>
@@ -19537,7 +19537,7 @@
       <c r="CL50" s="26"/>
       <c r="DB50" s="25"/>
     </row>
-    <row r="51" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>74</v>
       </c>
@@ -19560,7 +19560,7 @@
       <c r="CL51" s="26"/>
       <c r="DB51" s="25"/>
     </row>
-    <row r="52" spans="1:106" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:106" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="52" t="s">
         <v>68</v>
       </c>
@@ -19585,7 +19585,7 @@
       <c r="CL52" s="26"/>
       <c r="DB52" s="25"/>
     </row>
-    <row r="53" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>2</v>
       </c>
@@ -19610,7 +19610,7 @@
       <c r="CL53" s="29"/>
       <c r="DB53" s="49"/>
     </row>
-    <row r="54" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>3</v>
       </c>
@@ -19633,7 +19633,7 @@
       <c r="CL54" s="26"/>
       <c r="DB54" s="25"/>
     </row>
-    <row r="55" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>1</v>
       </c>
@@ -19654,7 +19654,7 @@
       <c r="CL55" s="26"/>
       <c r="DB55" s="25"/>
     </row>
-    <row r="56" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>0</v>
       </c>
@@ -19680,7 +19680,7 @@
       <c r="CL56" s="26"/>
       <c r="DB56" s="25"/>
     </row>
-    <row r="57" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="50" t="s">
         <v>59</v>
       </c>
@@ -19700,7 +19700,7 @@
       <c r="CL57" s="26"/>
       <c r="DB57" s="25"/>
     </row>
-    <row r="58" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="50" t="s">
         <v>43</v>
       </c>
@@ -19720,7 +19720,7 @@
       <c r="CL58" s="26"/>
       <c r="DB58" s="25"/>
     </row>
-    <row r="59" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50" t="s">
         <v>44</v>
       </c>
@@ -19740,7 +19740,7 @@
       <c r="CL59" s="26"/>
       <c r="DB59" s="25"/>
     </row>
-    <row r="60" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="50" t="s">
         <v>46</v>
       </c>
@@ -19760,7 +19760,7 @@
       <c r="CL60" s="26"/>
       <c r="DB60" s="25"/>
     </row>
-    <row r="61" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="50" t="s">
         <v>45</v>
       </c>
@@ -19780,7 +19780,7 @@
       <c r="CL61" s="26"/>
       <c r="DB61" s="25"/>
     </row>
-    <row r="62" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50" t="s">
         <v>47</v>
       </c>
@@ -19800,7 +19800,7 @@
       <c r="CL62" s="26"/>
       <c r="DB62" s="25"/>
     </row>
-    <row r="63" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50" t="s">
         <v>48</v>
       </c>
@@ -19820,7 +19820,7 @@
       <c r="CL63" s="26"/>
       <c r="DB63" s="25"/>
     </row>
-    <row r="64" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="50" t="s">
         <v>49</v>
       </c>
@@ -19840,7 +19840,7 @@
       <c r="CL64" s="26"/>
       <c r="DB64" s="25"/>
     </row>
-    <row r="65" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="50" t="s">
         <v>50</v>
       </c>
@@ -19860,7 +19860,7 @@
       <c r="CL65" s="26"/>
       <c r="DB65" s="25"/>
     </row>
-    <row r="66" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="50" t="s">
         <v>60</v>
       </c>
@@ -19880,7 +19880,7 @@
       <c r="CL66" s="26"/>
       <c r="DB66" s="25"/>
     </row>
-    <row r="67" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="50" t="s">
         <v>61</v>
       </c>
@@ -19900,7 +19900,7 @@
       <c r="CL67" s="26"/>
       <c r="DB67" s="25"/>
     </row>
-    <row r="68" spans="1:106" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:106" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="37" t="s">
         <v>70</v>
       </c>
@@ -19931,7 +19931,7 @@
       <c r="CL68" s="32"/>
       <c r="DB68" s="39"/>
     </row>
-    <row r="69" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="61" t="s">
         <v>29</v>
       </c>
@@ -19950,7 +19950,7 @@
       <c r="CL69" s="29"/>
       <c r="DB69" s="49"/>
     </row>
-    <row r="70" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="54" t="s">
         <v>31</v>
       </c>
@@ -19969,7 +19969,7 @@
       <c r="CL70" s="26"/>
       <c r="DB70" s="25"/>
     </row>
-    <row r="71" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="62" t="s">
         <v>35</v>
       </c>
@@ -19990,7 +19990,7 @@
       <c r="CL71" s="26"/>
       <c r="DB71" s="25"/>
     </row>
-    <row r="72" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="54" t="s">
         <v>30</v>
       </c>
@@ -20010,7 +20010,7 @@
       <c r="CL72" s="26"/>
       <c r="DB72" s="25"/>
     </row>
-    <row r="73" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="54" t="s">
         <v>33</v>
       </c>
@@ -20030,7 +20030,7 @@
       <c r="CL73" s="57"/>
       <c r="DB73" s="60"/>
     </row>
-    <row r="74" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="57" t="s">
         <v>80</v>
       </c>
@@ -20051,7 +20051,7 @@
       <c r="CL74" s="57"/>
       <c r="DB74" s="60"/>
     </row>
-    <row r="75" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="50" t="s">
         <v>75</v>
       </c>
@@ -20072,7 +20072,7 @@
       <c r="CL75" s="57"/>
       <c r="DB75" s="60"/>
     </row>
-    <row r="76" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="50" t="s">
         <v>76</v>
       </c>
@@ -20093,7 +20093,7 @@
       <c r="CL76" s="57"/>
       <c r="DB76" s="60"/>
     </row>
-    <row r="77" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="50" t="s">
         <v>77</v>
       </c>
@@ -20114,7 +20114,7 @@
       <c r="CL77" s="57"/>
       <c r="DB77" s="60"/>
     </row>
-    <row r="78" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="50" t="s">
         <v>78</v>
       </c>
@@ -20135,7 +20135,7 @@
       <c r="CL78" s="57"/>
       <c r="DB78" s="60"/>
     </row>
-    <row r="79" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="50" t="s">
         <v>79</v>
       </c>
@@ -20156,7 +20156,7 @@
       <c r="CL79" s="57"/>
       <c r="DB79" s="60"/>
     </row>
-    <row r="80" spans="1:106" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:106" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="52" t="s">
         <v>73</v>
       </c>
@@ -20186,7 +20186,7 @@
       <c r="CL80" s="26"/>
       <c r="DB80" s="25"/>
     </row>
-    <row r="81" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="29" t="s">
         <v>5</v>
       </c>
@@ -20206,7 +20206,7 @@
       <c r="CM81" s="53"/>
       <c r="DB81" s="49"/>
     </row>
-    <row r="82" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
         <v>12</v>
       </c>
@@ -20226,7 +20226,7 @@
       <c r="CN82" s="27"/>
       <c r="DB82" s="25"/>
     </row>
-    <row r="83" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="s">
         <v>25</v>
       </c>
@@ -20246,7 +20246,7 @@
       <c r="CN83" s="27"/>
       <c r="DB83" s="25"/>
     </row>
-    <row r="84" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
         <v>82</v>
       </c>
@@ -20266,7 +20266,7 @@
       <c r="CN84" s="27"/>
       <c r="DB84" s="25"/>
     </row>
-    <row r="85" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>84</v>
       </c>
@@ -20289,7 +20289,7 @@
       <c r="CR85" s="27"/>
       <c r="DB85" s="25"/>
     </row>
-    <row r="86" spans="1:106" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:106" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="37" t="s">
         <v>83</v>
       </c>
@@ -20340,538 +20340,538 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43122</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43123</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43124</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>43125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43128</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43129</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43130</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43131</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43132</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43135</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43136</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43137</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43138</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43139</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43142</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43143</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43144</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43145</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43146</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43149</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43150</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43151</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43152</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43153</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43156</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43157</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43158</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43159</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43160</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43166</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43167</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>43170</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>43171</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>43172</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>43173</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>43174</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43177</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>43178</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43179</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43180</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43181</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>43184</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>43185</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>43186</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>43187</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>43188</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>43191</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43192</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43193</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>43194</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43195</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>43198</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>43199</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>43200</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>43201</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>43202</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43205</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43206</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43207</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>43208</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>43209</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>43212</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>43213</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>43214</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>43215</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>43216</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>43219</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>43220</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>43221</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>43222</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>43223</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>43226</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>43227</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>43228</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>43229</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>43230</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>43233</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>43234</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>43235</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>43236</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>43237</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>43240</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>43241</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>43242</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>43243</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>43244</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>43247</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>43248</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>43249</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>43250</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>43251</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>43254</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>43255</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>43256</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>43257</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>43258</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>43261</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>43262</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>43263</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>43264</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>43265</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>43268</v>
       </c>
@@ -20890,14 +20890,14 @@
       <selection activeCell="B3" sqref="B3:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="96" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="95.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="14">
         <v>1</v>
       </c>
@@ -20908,7 +20908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -20919,7 +20919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -20930,7 +20930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -20941,7 +20941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -20952,7 +20952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -20974,7 +20974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
@@ -20982,7 +20982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
@@ -20990,102 +20990,102 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>12</v>
       </c>
@@ -21103,192 +21103,192 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
